--- a/top100avg.xlsx
+++ b/top100avg.xlsx
@@ -147,6 +147,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
